--- a/Base de Datos/Diccionario de Datos.xlsx
+++ b/Base de Datos/Diccionario de Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoyAlejo\Documents\GitHub\RestaurApp\Presentaciones - Versiones Finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoyAlejo\Documents\GitHub\RestaurApp\Base de Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -251,9 +251,6 @@
     <t>Entidad que guarda los tipos de comida que sirven los restaurantes.</t>
   </si>
   <si>
-    <t>Entidad que guarda las categorías(tipo de comida) que sirve un restaurante.</t>
-  </si>
-  <si>
     <t>Entidad que almacena las categorías de preferencia del usuario.</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>Id del usuario que creó el registro.</t>
   </si>
   <si>
-    <t>Id del usuario que aztualizó el registro.</t>
-  </si>
-  <si>
     <t>Fecha de creación.</t>
   </si>
   <si>
@@ -342,6 +336,12 @@
   </si>
   <si>
     <t>Entidad que almacena a los usuarios que perteneces a un determinado grupo.</t>
+  </si>
+  <si>
+    <t>Entidad que guarda las categorías (tipo de comida) que sirve un restaurante.</t>
+  </si>
+  <si>
+    <t>Id del usuario que actualizó el registro.</t>
   </si>
 </sst>
 </file>
@@ -582,6 +582,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -591,23 +605,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,17 +946,17 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -974,8 +974,8 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -989,8 +989,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -1004,8 +1004,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1019,8 +1019,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1034,8 +1034,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -1049,8 +1049,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -1064,8 +1064,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1081,87 +1081,87 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="20" t="s">
-        <v>86</v>
+      <c r="H12" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1179,8 +1179,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -1194,8 +1194,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -1209,8 +1209,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -1224,8 +1224,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -1239,13 +1239,13 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>6</v>
@@ -1256,8 +1256,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>23</v>
@@ -1273,87 +1273,87 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="20" t="s">
-        <v>86</v>
+      <c r="H24" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -1372,7 +1372,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="2"/>
       <c r="E29" s="4" t="s">
         <v>19</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="s">
         <v>29</v>
@@ -1402,22 +1402,22 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="2"/>
       <c r="E32" s="4" t="s">
         <v>30</v>
@@ -1432,86 +1432,86 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>85</v>
+      <c r="H33" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="17"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="20" t="s">
-        <v>86</v>
+      <c r="H34" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -1530,7 +1530,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="2"/>
       <c r="E39" s="4" t="s">
         <v>32</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="2"/>
       <c r="E40" s="4" t="s">
         <v>33</v>
@@ -1560,12 +1560,12 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="17"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>6</v>
@@ -1577,12 +1577,12 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
-      <c r="C42" s="14"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>6</v>
@@ -1594,12 +1594,12 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="17"/>
-      <c r="C43" s="14"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>6</v>
@@ -1611,86 +1611,86 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
-      <c r="C44" s="14"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>85</v>
+      <c r="H44" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
-      <c r="C45" s="14"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="20" t="s">
-        <v>86</v>
+      <c r="H45" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="2"/>
       <c r="E46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
-      <c r="C47" s="14"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
-      <c r="C48" s="15"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -1709,12 +1709,12 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>6</v>
@@ -1726,12 +1726,12 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="17"/>
-      <c r="C51" s="14"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
@@ -1745,7 +1745,7 @@
       <c r="B52" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -1764,7 +1764,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="2"/>
       <c r="E53" s="4" t="s">
         <v>19</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
-      <c r="C54" s="14"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="2"/>
       <c r="E54" s="4" t="s">
         <v>22</v>
@@ -1794,87 +1794,87 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="20" t="s">
-        <v>85</v>
+      <c r="H55" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="17"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="20" t="s">
-        <v>86</v>
+      <c r="H56" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="17"/>
-      <c r="C57" s="14"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="2"/>
       <c r="E57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="17"/>
-      <c r="C58" s="14"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
-      <c r="C59" s="15"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>76</v>
+      <c r="C60" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>4</v>
@@ -1892,12 +1892,12 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="17"/>
-      <c r="C61" s="14"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>6</v>
@@ -1909,12 +1909,12 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="17"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
@@ -1926,15 +1926,15 @@
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
-      <c r="C63" s="14"/>
-      <c r="H63" s="22"/>
+      <c r="C63" s="20"/>
+      <c r="H63" s="15"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>77</v>
+      <c r="C64" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>4</v>
@@ -1952,12 +1952,12 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="17"/>
-      <c r="C65" s="14"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>6</v>
@@ -1969,12 +1969,12 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="17"/>
-      <c r="C66" s="14"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>6</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="18"/>
-      <c r="C67" s="15"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -1995,10 +1995,10 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>4</v>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="17"/>
-      <c r="C69" s="14"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="12" t="s">
         <v>17</v>
       </c>
@@ -2028,94 +2028,94 @@
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="17"/>
-      <c r="C70" s="14"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="21"/>
-      <c r="H70" s="20" t="s">
-        <v>85</v>
+      <c r="G70" s="14"/>
+      <c r="H70" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="17"/>
-      <c r="C71" s="14"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="20" t="s">
-        <v>86</v>
+      <c r="H71" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="17"/>
-      <c r="C72" s="14"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="2"/>
       <c r="E72" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="17"/>
-      <c r="C73" s="14"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
-      <c r="C74" s="15"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>4</v>
@@ -2128,46 +2128,46 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="17"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="17"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="18"/>
-      <c r="C78" s="15"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="3"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -2176,6 +2176,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C3:C15"/>
+    <mergeCell ref="C16:C27"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="C49:C51"/>
     <mergeCell ref="B75:B78"/>
     <mergeCell ref="C75:C78"/>
     <mergeCell ref="B28:B37"/>
@@ -2185,17 +2193,9 @@
     <mergeCell ref="C52:C59"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C3:C15"/>
-    <mergeCell ref="C16:C27"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="C28:C37"/>
     <mergeCell ref="B52:B59"/>
     <mergeCell ref="C60:C63"/>
     <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C49:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
